--- a/結合テスト設計.xlsx
+++ b/結合テスト設計.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="104">
   <si>
     <t>テスト対象</t>
   </si>
@@ -181,28 +181,153 @@
     <t>１２</t>
   </si>
   <si>
+    <t>アカウント更新画面に遷移する機能</t>
+  </si>
+  <si>
+    <t>表の『更新』ボタンを押す。</t>
+  </si>
+  <si>
+    <t>アカウント更新画面に遷移</t>
+  </si>
+  <si>
     <t>１３</t>
+  </si>
+  <si>
+    <t>アカウント消去画面に遷移する機能</t>
+  </si>
+  <si>
+    <t>表の『消去』ボタンを押す</t>
+  </si>
+  <si>
+    <t>アカウント主虚画面に遷移</t>
   </si>
   <si>
     <t>１４</t>
   </si>
   <si>
+    <t>アカウント更新画面</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面からデータをもらいフォームに表示する機能</t>
+  </si>
+  <si>
     <t>１５</t>
+  </si>
+  <si>
+    <t>ユーザーの情報を入力してもらい、アカウント更新確認画面にデータを渡す</t>
+  </si>
+  <si>
+    <t>全ての値を変更して確認ボタンを押す</t>
   </si>
   <si>
     <t>１６</t>
   </si>
   <si>
+    <t>パスワード以外、エラーメッセージが表示される。
+処理が中断される</t>
+  </si>
+  <si>
     <t>１７</t>
+  </si>
+  <si>
+    <t>パスワードだけ入力せずに確認ボタンを押す</t>
   </si>
   <si>
     <t>１８</t>
   </si>
   <si>
+    <t>アカウント更新確認画面</t>
+  </si>
+  <si>
+    <t>アカウント更新画面から送られてきた内容を画面に表示</t>
+  </si>
+  <si>
+    <t>アカウント更新画面から送られてきた内容を画面に表示される</t>
+  </si>
+  <si>
     <t>１９</t>
   </si>
   <si>
+    <t>アカウント更新画面遷移時に入力値が引き継いで遷移している</t>
+  </si>
+  <si>
     <t>２０</t>
+  </si>
+  <si>
+    <t>パスワードをハッシュ化してアカウント更新完了画面に遷移</t>
+  </si>
+  <si>
+    <t>２１</t>
+  </si>
+  <si>
+    <t>アカウント更新完了画面</t>
+  </si>
+  <si>
+    <t>２２</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOPページに戻る
+</t>
+  </si>
+  <si>
+    <t>２３</t>
+  </si>
+  <si>
+    <t>アカウント消去画面</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面からデータをもらいフォームに表示する</t>
+  </si>
+  <si>
+    <t>２４</t>
+  </si>
+  <si>
+    <t>表示しているデータをアカウント消去確認画面に送信する機能</t>
+  </si>
+  <si>
+    <t>『消去』ボタンを押す</t>
+  </si>
+  <si>
+    <t>アカウント消去確認画面に遷移する</t>
+  </si>
+  <si>
+    <t>２５</t>
+  </si>
+  <si>
+    <t>アカウント消去確認画面</t>
+  </si>
+  <si>
+    <t>アカウント消去画面から送られてきた内容をアカウント消去完了画面にデータを送る機能</t>
+  </si>
+  <si>
+    <t>「前に戻る』ボタンを押す</t>
+  </si>
+  <si>
+    <t>アカウント消去画面に遷移</t>
+  </si>
+  <si>
+    <t>２６</t>
+  </si>
+  <si>
+    <t>アカウント消去完了画面に遷移する</t>
+  </si>
+  <si>
+    <t>２７</t>
+  </si>
+  <si>
+    <t>アカウント消去完了画面</t>
+  </si>
+  <si>
+    <t>アカウント情報確認画面からきたデータをMysqLに接続して特定のデータを消去する</t>
+  </si>
+  <si>
+    <t>アカウント情報確認画面からきたデータをMysqLに接続してデータを消去する</t>
+  </si>
+  <si>
+    <t>TOPページに戻る</t>
+  </si>
+  <si>
+    <t>２９</t>
   </si>
 </sst>
 </file>
@@ -212,7 +337,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy年m月d日"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -226,12 +351,8 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,14 +365,8 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border/>
     <border>
       <left style="thin">
@@ -267,11 +382,47 @@
         <color rgb="FF666666"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF434343"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF434343"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF434343"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF434343"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -296,14 +447,29 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -868,13 +1034,13 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1108,18 +1274,36 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="5">
+        <v>44579.0</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1139,17 +1323,35 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
+      <c r="B14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="5">
+        <v>44579.0</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1169,17 +1371,35 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
+      <c r="B15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="5">
+        <v>44579.0</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -1199,17 +1419,35 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
+      <c r="B16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="5">
+        <v>44579.0</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1229,17 +1467,35 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
+      <c r="B17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="5">
+        <v>44579.0</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -1259,17 +1515,35 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
+      <c r="B18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="5">
+        <v>44579.0</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -1289,17 +1563,35 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
+      <c r="B19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="5">
+        <v>44579.0</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -1319,17 +1611,35 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
+      <c r="B20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="5">
+        <v>44579.0</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -1349,17 +1659,35 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="B21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="5">
+        <v>44579.0</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -1378,16 +1706,36 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+      <c r="A22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="5">
+        <v>44579.0</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -1406,16 +1754,36 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="A23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="5">
+        <v>44579.0</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -1434,16 +1802,36 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="A24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="5">
+        <v>44583.0</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -1462,16 +1850,36 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="A25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="5">
+        <v>44583.0</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -1490,16 +1898,36 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="A26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="5">
+        <v>44583.0</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1518,16 +1946,36 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="A27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="5">
+        <v>44583.0</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1546,16 +1994,36 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="A28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="5">
+        <v>44579.0</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -1574,44 +2042,66 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
+      <c r="A29" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="14">
+        <v>44579.0</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
     </row>
     <row r="30">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="A30" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
